--- a/student_timetables/Hailey LEUNG_CampA_timetable.xlsx
+++ b/student_timetables/Hailey LEUNG_CampA_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,7 +585,7 @@
       <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Stephane RETY &amp; pianist 
-(Room Stephane)</t>
+(Room G19)</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -603,7 +603,7 @@
       <c r="F7" s="1" t="inlineStr">
         <is>
           <t>Flute MasterClass
-(Room Stephane)</t>
+(Room G19)</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
@@ -660,7 +660,7 @@
       <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Ivy CHUANG 
-(Room Ivy)</t>
+(Room G14)</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -673,7 +673,7 @@
       <c r="E11" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Ivy CHUANG 
-(Room Ivy)</t>
+(Room G14)</t>
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
@@ -804,7 +804,7 @@
       <c r="B19" s="1" t="inlineStr">
         <is>
           <t>Rehearsal with pianist
-(Room Shelley)</t>
+(Room G22)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
@@ -816,7 +816,7 @@
       <c r="D19" s="1" t="inlineStr">
         <is>
           <t>Private Lesson with Stephane RETY 
-(Room Stephane)</t>
+(Room G19)</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
@@ -828,7 +828,7 @@
       <c r="F19" s="1" t="inlineStr">
         <is>
           <t>Flute MasterClass
-(Room Stephane)</t>
+(Room G19)</t>
         </is>
       </c>
       <c r="G19" s="1" t="n"/>
@@ -889,31 +889,31 @@
       <c r="B23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
-(Room Ivy)</t>
+(Room G14)</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
-(Room Ivy)</t>
+(Room G14)</t>
         </is>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
-(Room Ivy)</t>
+(Room G14)</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
-(Room Ivy)</t>
+(Room G14)</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
           <t>Ensemble 
-(Room Ivy)</t>
+(Room G14)</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
